--- a/data/dividends_info_20260206.xlsx
+++ b/data/dividends_info_20260206.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.900000095367432</v>
+        <v>5.966000080108643</v>
       </c>
       <c r="I2" t="n">
-        <v>3.220338930997381</v>
+        <v>3.184713333033345</v>
       </c>
       <c r="J2" t="n">
         <v>101</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19.79999923706055</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="I3" t="n">
-        <v>3.787878933834458</v>
+        <v>3.826530537770124</v>
       </c>
       <c r="J3" t="n">
         <v>87</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.949999809265137</v>
+        <v>6.965000152587891</v>
       </c>
       <c r="I4" t="n">
-        <v>7.194244801754432</v>
+        <v>7.178750740073162</v>
       </c>
       <c r="J4" t="n">
         <v>73</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>24.60499954223633</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3657793199528748</v>
+        <v>0.3615910092686877</v>
       </c>
       <c r="J5" t="n">
         <v>45</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>57.20000076293945</v>
+        <v>57.84999847412109</v>
       </c>
       <c r="I6" t="n">
-        <v>1.136363621206702</v>
+        <v>1.123595535254464</v>
       </c>
       <c r="J6" t="n">
         <v>17</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.889999985694885</v>
+        <v>1.919999957084656</v>
       </c>
       <c r="I7" t="n">
-        <v>3.17460319863125</v>
+        <v>3.125000069849194</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2249999940395355</v>
+        <v>0.2129999995231628</v>
       </c>
       <c r="I8" t="n">
-        <v>26.66666737309211</v>
+        <v>28.16901414756823</v>
       </c>
       <c r="J8" t="n">
         <v>-4</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.486000061035156</v>
+        <v>9.477999687194824</v>
       </c>
       <c r="I9" t="n">
-        <v>2.424625748683596</v>
+        <v>2.426672373821025</v>
       </c>
       <c r="J9" t="n">
         <v>-18</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.955999851226807</v>
+        <v>5.967999935150146</v>
       </c>
       <c r="I10" t="n">
-        <v>2.028206900897048</v>
+        <v>2.024128708321791</v>
       </c>
       <c r="J10" t="n">
         <v>-18</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>24.89999961853027</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="I11" t="n">
-        <v>2.891566309359237</v>
+        <v>2.790697756943156</v>
       </c>
       <c r="J11" t="n">
         <v>-28</v>
@@ -2889,7 +2889,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2906,7 +2906,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2957,7 +2957,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2967,14 +2967,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2984,14 +2984,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3001,14 +3001,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3018,14 +3018,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3042,7 +3042,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3059,7 +3059,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3069,14 +3069,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3103,14 +3103,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3127,7 +3127,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3171,14 +3171,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3188,14 +3188,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3222,14 +3222,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3239,14 +3239,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3256,14 +3256,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3290,14 +3290,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3307,14 +3307,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3373,109 +3373,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anima Holding S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0004998065</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-04-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-04-22</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6.949999809265137</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7.194244801754432</v>
-      </c>
-      <c r="I2" t="n">
-        <v>73</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
